--- a/datf_core/test/testprotocol/contenttestprotocol.xlsx
+++ b/datf_core/test/testprotocol/contenttestprotocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED8CEF6-A94C-49D9-9C7C-F3F626433851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982719AE-14E7-4C09-A5B5-498E8122CA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Sno.</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>testcase33_adls_parquet_adls_csv_auto</t>
+  </si>
+  <si>
+    <t>testcase28_manual_sql_notifications</t>
+  </si>
+  <si>
+    <t>testcase29_manual_sql_fullname</t>
   </si>
 </sst>
 </file>
@@ -576,10 +582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,13 +612,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C8" si="0">_xlfn.CONCAT("test/testcases/",B2,".xlsx")</f>
+        <f t="shared" ref="C2:C10" si="0">_xlfn.CONCAT("test/testcases/",B2,".xlsx")</f>
         <v>test/testcases/testcase2_parquet_parquet_match.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -621,7 +627,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -636,7 +642,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -651,7 +657,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -666,7 +672,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -681,7 +687,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -696,7 +702,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
@@ -706,19 +712,19 @@
         <v>test/testcases/testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f t="shared" ref="C9:C12" si="1">_xlfn.CONCAT("test/testcases/",B9,".xlsx")</f>
-        <v>test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -726,46 +732,76 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>test/testcases/testcase29_manual_sql_fullname.xlsx</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f t="shared" ref="C11:C14" si="1">_xlfn.CONCAT("test/testcases/",B11,".xlsx")</f>
+        <v>test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="str">
+      <c r="C12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>test/testcases/testcase31_delta_parquet_manual.xlsx</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>32</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4" t="str">
+      <c r="C13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>test/testcases/testcase32_adls_parquet_to_delta_auto.xlsx</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4" t="str">
+      <c r="C14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>test/testcases/testcase33_adls_parquet_adls_csv_auto.xlsx</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -773,7 +809,7 @@
   <autoFilter ref="A1:D8" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
